--- a/biology/Zoologie/Helostoma_temminkii/Helostoma_temminkii.xlsx
+++ b/biology/Zoologie/Helostoma_temminkii/Helostoma_temminkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gourami embrasseur (Helostoma temminkii ou Helostoma temminckii) est un poisson d'eau douce originaire de l'Asie du Sud-Est : Thaïlande, Sumatra et Java[1]. C'est le seul représentant de sa famille, Helostomatidae, et de son genre Helostoma. Le genre Helostoma est donc monospécifique[2].
-Le mot Helostoma vient du grec ancien helo (verrue) et στόμα (stóma, bouche), en référence à la bouche du Gourami embrasseur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gourami embrasseur (Helostoma temminkii ou Helostoma temminckii) est un poisson d'eau douce originaire de l'Asie du Sud-Est : Thaïlande, Sumatra et Java. C'est le seul représentant de sa famille, Helostomatidae, et de son genre Helostoma. Le genre Helostoma est donc monospécifique.
+Le mot Helostoma vient du grec ancien helo (verrue) et στόμα (stóma, bouche), en référence à la bouche du Gourami embrasseur.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson mesure 10 cm en captivité mais peut toutefois atteindre 30 cm dans la nature, par exemple dans le Mékong. Il est omnivore.
-Le gourami de couleur rose, le plus courant, provient surtout de Java. Le gourami de couleur verte serait originaire de Thaïlande[3].
+Le gourami de couleur rose, le plus courant, provient surtout de Java. Le gourami de couleur verte serait originaire de Thaïlande.
 Ce poisson est célèbre pour ses embrassades, avec sa bouche en forme de ventouse. Deux individus se mettent face à face et s'affrontent à coups de « baisers » sur leur bouche en ventouse. On ne sait pas exactement s'il s'agit d'un combat ou d'un rituel amoureux, car on ne peut reconnaître un mâle d'une femelle.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -576,7 +592,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré sa grande taille, Helostoma temminkii peut cohabiter avec n'importe quel petit poisson.
 Sa reproduction, rare en captivité nécessite un grand aquarium et se fait par émission d'œufs flottants à la surface, sans avoir besoin de nid, contrairement aux membres des familles proches : Anabantidae et Osphronemidae.
